--- a/data/2020_Fresh_Sorted_EurA1c_report.xlsx
+++ b/data/2020_Fresh_Sorted_EurA1c_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Type</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -556,6 +561,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M2" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -618,6 +626,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M3" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -680,6 +691,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M4" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -742,6 +756,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M5" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -804,6 +821,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M6" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -866,6 +886,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M7" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -928,6 +951,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -990,6 +1016,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M9" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1052,6 +1081,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1114,6 +1146,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1176,6 +1211,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1238,6 +1276,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M13" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1300,6 +1341,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M14" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1362,6 +1406,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1424,6 +1471,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1486,6 +1536,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M17" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1548,6 +1601,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M18" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1610,6 +1666,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M19" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1672,6 +1731,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M20" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1734,6 +1796,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M21" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1796,6 +1861,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1858,6 +1926,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M23" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1920,6 +1991,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M24" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1982,6 +2056,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2044,6 +2121,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2106,6 +2186,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2168,6 +2251,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M28" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2230,6 +2316,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2292,6 +2381,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2354,6 +2446,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M31" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2416,6 +2511,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M32" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2478,6 +2576,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M33" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2540,6 +2641,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2602,6 +2706,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2664,6 +2771,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M36" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2726,6 +2836,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2788,6 +2901,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M38" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2850,6 +2966,9 @@
           <t>Fresh</t>
         </is>
       </c>
+      <c r="M39" t="n">
+        <v>2020</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2911,6 +3030,9 @@
         <is>
           <t>Fresh</t>
         </is>
+      </c>
+      <c r="M40" t="n">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
